--- a/ATC/exported_analysis/ATC2_CA_comparing.xlsx
+++ b/ATC/exported_analysis/ATC2_CA_comparing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/lholguin_purdue_edu/Documents/VS code/Data/ATC/exported_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{EAC35ADF-3472-43AE-B415-8D2D1FAB817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75D75B46-65A1-40A0-8D59-2E68013058FE}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{EAC35ADF-3472-43AE-B415-8D2D1FAB817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC8F9A66-8FA0-4FDA-880C-D4E5A0D449B2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="5060" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units_Reimbursed" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="128">
   <si>
     <t>ATC_Class</t>
   </si>
@@ -413,12 +413,21 @@
   <si>
     <t>VLOOKUP GENERAL</t>
   </si>
+  <si>
+    <t>Indiana Vs NATIONAL (ANALYSIS - ACROSS)</t>
+  </si>
+  <si>
+    <t>Comparing units Vs prescriptions in Indiana state</t>
+  </si>
+  <si>
+    <t>Comparing units Vs prescriptions NATIONALLY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +444,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -511,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -525,6 +542,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,6 +566,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection sqref="A1:M87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4415,7 +4445,7 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection sqref="A1:M87"/>
+      <selection activeCell="J2" sqref="J2:J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7996,7 +8026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C8D169-525D-4333-962A-DB250C299FA0}">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8195,7 +8227,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="0">VLOOKUP(A3,$R$2:$R$29,1,0)</f>
+        <f t="shared" ref="B3:B23" si="0">VLOOKUP(A3,$R$2:$R$29,1,0)</f>
         <v>N02</v>
       </c>
       <c r="C3">
@@ -15191,11 +15223,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70ED9936-71FC-4775-B375-96890ACDBCDF}">
   <dimension ref="B2:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="18" max="18" width="18.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -15206,9 +15241,27 @@
       <c r="B4" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
       <c r="U4" s="6" t="s">
         <v>123</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="2:34" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R5" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.35">
@@ -20031,6 +20084,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="W4:AA4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ATC/exported_analysis/ATC2_CA_comparing.xlsx
+++ b/ATC/exported_analysis/ATC2_CA_comparing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/lholguin_purdue_edu/Documents/VS code/Data/ATC/exported_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{EAC35ADF-3472-43AE-B415-8D2D1FAB817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC8F9A66-8FA0-4FDA-880C-D4E5A0D449B2}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{EAC35ADF-3472-43AE-B415-8D2D1FAB817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E4481C0-8CFE-4FB2-BAFF-D12986D2E032}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="5060" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="26030" yWindow="5510" windowWidth="19200" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units_Reimbursed" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
     <sheet name="Indiana Vs National" sheetId="5" r:id="rId4"/>
     <sheet name="NDC_Counts" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Units_Reimbursed!$A$2:$A$87</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Units_Reimbursed!$J$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Units_Reimbursed!$J$2:$J$87</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Units_Reimbursed!$A$2:$A$87</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Units_Reimbursed!$J$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Units_Reimbursed!$J$2:$J$87</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -859,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15223,8 +15231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70ED9936-71FC-4775-B375-96890ACDBCDF}">
   <dimension ref="B2:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView topLeftCell="H43" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33:U61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ATC/exported_analysis/ATC2_CA_comparing.xlsx
+++ b/ATC/exported_analysis/ATC2_CA_comparing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/lholguin_purdue_edu/Documents/VS code/Data/ATC/exported_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{EAC35ADF-3472-43AE-B415-8D2D1FAB817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E4481C0-8CFE-4FB2-BAFF-D12986D2E032}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{EAC35ADF-3472-43AE-B415-8D2D1FAB817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9A3062A-F95D-4623-A367-F7B889BB7F53}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="26030" yWindow="5510" windowWidth="19200" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units_Reimbursed" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
     <sheet name="Indiana Vs National" sheetId="5" r:id="rId4"/>
     <sheet name="NDC_Counts" sheetId="3" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Units_Reimbursed!$A$2:$A$87</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Units_Reimbursed!$J$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Units_Reimbursed!$J$2:$J$87</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Units_Reimbursed!$A$2:$A$87</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Units_Reimbursed!$J$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Units_Reimbursed!$J$2:$J$87</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="129">
   <si>
     <t>ATC_Class</t>
   </si>
@@ -430,6 +422,9 @@
   <si>
     <t>Comparing units Vs prescriptions NATIONALLY</t>
   </si>
+  <si>
+    <t>VLOOKUP with indiana units</t>
+  </si>
 </sst>
 </file>
 
@@ -465,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +503,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -536,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -559,6 +560,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4452,8 +4456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8034,8 +8038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C8D169-525D-4333-962A-DB250C299FA0}">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R27" sqref="R2:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10454,47 +10458,47 @@
       <c r="N28">
         <v>85.95</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="S28" s="4" t="e">
+      <c r="S28" s="14" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="14">
         <v>0.246</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="14">
         <v>0.22900000000000001</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="14">
         <v>0.247</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="14">
         <v>0.28899999999999998</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="14">
         <v>0.35499999999999998</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="14">
         <v>0.376</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="14">
         <v>0.375</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="14">
         <v>0.30499999999999999</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" s="14">
         <v>2.4220000000000002</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" s="14">
         <v>1.74</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" s="14">
         <v>111.32599999999999</v>
       </c>
-      <c r="AE28">
+      <c r="AE28" s="14">
         <v>80.19</v>
       </c>
     </row>
@@ -10538,47 +10542,47 @@
       <c r="N29">
         <v>86.76</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="R29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="S29" s="4" t="e">
+      <c r="S29" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="13">
         <v>0.18099999999999999</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="13">
         <v>0.13200000000000001</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="13">
         <v>0.192</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="13">
         <v>0.312</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="13">
         <v>0.185</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="13">
         <v>0.23499999999999999</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="13">
         <v>0.32300000000000001</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AA29" s="13">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AB29" s="13">
         <v>1.8660000000000001</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AC29" s="13">
         <v>1.34</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AD29" s="13">
         <v>113.19199999999999</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AE29" s="13">
         <v>81.53</v>
       </c>
     </row>
@@ -15231,8 +15235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70ED9936-71FC-4775-B375-96890ACDBCDF}">
   <dimension ref="B2:AH61"/>
   <sheetViews>
-    <sheetView topLeftCell="H43" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33:U61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17114,7 +17118,7 @@
       <c r="O26">
         <v>78.86</v>
       </c>
-      <c r="R26" t="e">
+      <c r="R26" s="12" t="e">
         <f>VLOOKUP(U26,$C$7:$C$28,1,0)</f>
         <v>#N/A</v>
       </c>
@@ -17294,7 +17298,7 @@
       <c r="O28">
         <v>81.010000000000005</v>
       </c>
-      <c r="R28" t="e">
+      <c r="R28" s="12" t="e">
         <f>VLOOKUP(U28,$C$7:$C$28,1,0)</f>
         <v>#N/A</v>
       </c>
@@ -17442,7 +17446,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
         <v>99</v>
@@ -19504,25 +19508,25 @@
       </c>
     </row>
     <row r="55" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="4" t="e">
+      <c r="C55" s="13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="13">
         <v>0.191</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="13">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="13">
         <v>0.19800000000000001</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="13">
         <v>0.217</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="13">
         <v>0.24299999999999999</v>
       </c>
       <c r="I55">
@@ -19547,7 +19551,7 @@
         <v>75.17</v>
       </c>
       <c r="R55" t="e">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(U55,$B$33:$B$60,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U55" t="s">
@@ -19594,25 +19598,25 @@
       </c>
     </row>
     <row r="56" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="4" t="e">
+      <c r="C56" s="13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="13">
         <v>0.17599999999999999</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="13">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="13">
         <v>0.23400000000000001</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="13">
         <v>0.248</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="13">
         <v>0.22800000000000001</v>
       </c>
       <c r="I56">
@@ -19684,25 +19688,25 @@
       </c>
     </row>
     <row r="57" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="4" t="e">
+      <c r="C57" s="13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="13">
         <v>0.153</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="13">
         <v>0.19700000000000001</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="13">
         <v>0.23799999999999999</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="13">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="13">
         <v>0.251</v>
       </c>
       <c r="I57">
@@ -19774,25 +19778,25 @@
       </c>
     </row>
     <row r="58" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="4" t="e">
+      <c r="C58" s="13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="13">
         <v>0.109</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="13">
         <v>0.12</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="13">
         <v>0.112</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="13">
         <v>0.112</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="13">
         <v>0.124</v>
       </c>
       <c r="I58">
@@ -19864,25 +19868,25 @@
       </c>
     </row>
     <row r="59" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="4" t="e">
+      <c r="C59" s="13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="13">
         <v>0.246</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="13">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="13">
         <v>0.247</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="13">
         <v>0.28899999999999998</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="13">
         <v>0.35499999999999998</v>
       </c>
       <c r="I59">
@@ -19954,25 +19958,25 @@
       </c>
     </row>
     <row r="60" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="4" t="e">
+      <c r="C60" s="13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="13">
         <v>0.18099999999999999</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="13">
         <v>0.13200000000000001</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="13">
         <v>0.192</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="13">
         <v>0.312</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="13">
         <v>0.185</v>
       </c>
       <c r="I60">
@@ -20044,6 +20048,13 @@
       </c>
     </row>
     <row r="61" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
       <c r="R61" t="str">
         <f t="shared" si="1"/>
         <v>B01</v>
